--- a/STEP4/ClinicalRelevance_Plasmids.xlsx
+++ b/STEP4/ClinicalRelevance_Plasmids.xlsx
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="646">
   <si>
     <t xml:space="preserve">Updated 16/01/2020 </t>
   </si>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">In case you notice errors or have more recent data available, we appreciate you sending this information to BCCM.ITM@itg.be</t>
   </si>
   <si>
-    <t xml:space="preserve">Desribed clinically relevant presentation in humans</t>
+    <t xml:space="preserve">Described clinically relevant presentation in humans</t>
   </si>
   <si>
     <t xml:space="preserve">Species</t>
@@ -3383,11 +3383,11 @@
   <dimension ref="A1:Q273"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A112" activeCellId="0" sqref="A112"/>
-      <selection pane="bottomRight" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3403,7 +3403,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="61.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="61.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="47.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="34.33"/>
@@ -10594,6 +10594,12 @@
       <c r="A264" s="1" t="s">
         <v>635</v>
       </c>
+      <c r="B264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="P264" s="1" t="s">
         <v>636</v>
       </c>
